--- a/VMW.xlsx
+++ b/VMW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A8B80-D5D9-4B7C-B9E0-02A896A986D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9C7FE-4655-41F2-AE52-CEAD90B47B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59160" yWindow="4485" windowWidth="20415" windowHeight="10800" activeTab="1" xr2:uid="{49C4DD02-9687-4C75-BF40-C5A0933D8004}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{49C4DD02-9687-4C75-BF40-C5A0933D8004}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Net Income</t>
+  </si>
+  <si>
+    <t>FQ421</t>
+  </si>
+  <si>
+    <t>FQ321</t>
   </si>
 </sst>
 </file>
@@ -615,321 +621,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61183947-CA8D-48AC-8F03-EC2601285447}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="2"/>
+    <col min="3" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="C2" s="5">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
         <v>44316</v>
       </c>
-      <c r="G2" s="5">
+      <c r="I2" s="5">
         <v>44680</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>646</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>572</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>741</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>899</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>1607</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
         <v>1617</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8">
-        <f>SUM(C4:C6)</f>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f>SUM(E4:E6)</f>
         <v>2994</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D7:G7" si="0">SUM(D4:D6)</f>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:I7" si="0">SUM(F4:F6)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>3088</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <f>37+157+337</f>
         <v>531</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <f>35+192+375</f>
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6">
-        <f>+C7-C8</f>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <f>+E7-E8</f>
         <v>2463</v>
       </c>
-      <c r="G9" s="6">
-        <f>+G7-G8</f>
+      <c r="I9" s="6">
+        <f>+I7-I8</f>
         <v>2486</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>708</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>774</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>959</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>1053</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>236</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <v>251</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6">
-        <f>SUM(C10:C12)</f>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <f>SUM(E10:E12)</f>
         <v>1903</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6">
-        <f>SUM(G10:G12)</f>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
+        <f>SUM(I10:I12)</f>
         <v>2078</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6">
-        <f>+C9-C13</f>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <f>+E9-E13</f>
         <v>560</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <f>+G9-G13</f>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
+        <f>+I9-I13</f>
         <v>408</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2">
+      <c r="E15" s="2">
         <f>-50-23</f>
         <v>-73</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <f>1-71-10</f>
         <v>-80</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6">
-        <f>+C14+C15</f>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <f>+E14+E15</f>
         <v>487</v>
       </c>
-      <c r="G16" s="6">
-        <f>+G14+G15</f>
+      <c r="I16" s="6">
+        <f>+I14+I15</f>
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2">
+      <c r="E17" s="2">
         <v>86</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="6">
-        <f>+C16-C17</f>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <f>+E16-E17</f>
         <v>401</v>
       </c>
-      <c r="G18" s="6">
-        <f>+G16-G17</f>
+      <c r="I18" s="6">
+        <f>+I16-I17</f>
         <v>242</v>
       </c>
     </row>
